--- a/version_3/attendance.xlsx
+++ b/version_3/attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,53 +434,44 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>attendance</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>amma</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="B2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Ayush</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="B3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Pranav</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="B4" t="n">
         <v>1</v>
       </c>
     </row>
